--- a/Documentos/BBDD/DICCIONARIO DATOS.xlsx
+++ b/Documentos/BBDD/DICCIONARIO DATOS.xlsx
@@ -5,18 +5,20 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\murog\OneDrive\Documentos\Reto_1_DAW\Documentos\BBDD\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\murog\OneDrive\Escritorio\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2F189C2-4EBB-4E77-9E53-A74E1C32809F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD9808CB-DA0E-4776-84DE-E09007BF449B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{F2C749D0-38F2-4F21-81E6-4C0B479654D9}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="5" xr2:uid="{F2C749D0-38F2-4F21-81E6-4C0B479654D9}"/>
   </bookViews>
   <sheets>
-    <sheet name="PRODUCTOS" sheetId="1" r:id="rId1"/>
-    <sheet name="Dic_productos" sheetId="2" r:id="rId2"/>
-    <sheet name="COFFEEUSER" sheetId="3" r:id="rId3"/>
-    <sheet name="SHOPPINGCART" sheetId="4" r:id="rId4"/>
+    <sheet name="PRODUCT" sheetId="2" r:id="rId1"/>
+    <sheet name="COFFEEUSER" sheetId="3" r:id="rId2"/>
+    <sheet name="SHOPPINGCART" sheetId="4" r:id="rId3"/>
+    <sheet name="BILL" sheetId="5" r:id="rId4"/>
+    <sheet name="ADMIN_PANEL" sheetId="6" r:id="rId5"/>
+    <sheet name="EMPLOYEE" sheetId="7" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="173">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="284" uniqueCount="201">
   <si>
     <t>Columna</t>
   </si>
@@ -53,86 +55,22 @@
     <t>id</t>
   </si>
   <si>
-    <t>int</t>
-  </si>
-  <si>
-    <t>Identificador único del producto</t>
-  </si>
-  <si>
     <t>nombre</t>
   </si>
   <si>
-    <t>varchar(100)</t>
-  </si>
-  <si>
-    <t>Nombre del producto</t>
-  </si>
-  <si>
     <t>tipo_producto</t>
   </si>
   <si>
-    <t>Identificador del tipo de producto</t>
-  </si>
-  <si>
     <t>precio</t>
   </si>
   <si>
-    <t>decimal(5,2)</t>
-  </si>
-  <si>
-    <t>Precio del producto</t>
-  </si>
-  <si>
     <t>descripcion</t>
   </si>
   <si>
-    <t>varchar(500)</t>
-  </si>
-  <si>
-    <t>Descripción del producto</t>
-  </si>
-  <si>
     <t>descripcion_larga</t>
   </si>
   <si>
-    <t>varchar(1000)</t>
-  </si>
-  <si>
-    <t>Descripción detallada del producto</t>
-  </si>
-  <si>
     <t>imagen</t>
-  </si>
-  <si>
-    <t>Ruta de la imagen del producto</t>
-  </si>
-  <si>
-    <r>
-      <t>DICCIO</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>NARIO DE LA BASE DE DATOS</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> (PRODUCTOS)</t>
-    </r>
   </si>
   <si>
     <t>JAVA COFFEE</t>
@@ -634,12 +572,210 @@
       <t xml:space="preserve"> (SHOPPINGCART)</t>
     </r>
   </si>
+  <si>
+    <t>BILL_ID</t>
+  </si>
+  <si>
+    <t>INT</t>
+  </si>
+  <si>
+    <t>ID de la factura (clave primaria)</t>
+  </si>
+  <si>
+    <t>TOTAL</t>
+  </si>
+  <si>
+    <t>DECIMAL(10, 2)</t>
+  </si>
+  <si>
+    <t>Total de la factura</t>
+  </si>
+  <si>
+    <t>PAYMENT_METHOD</t>
+  </si>
+  <si>
+    <t>VARCHAR(50)</t>
+  </si>
+  <si>
+    <t>Método de pago utilizado en la factura</t>
+  </si>
+  <si>
+    <t>BILL_NUMBER</t>
+  </si>
+  <si>
+    <t>Número de la factura</t>
+  </si>
+  <si>
+    <t>BILL_DATE</t>
+  </si>
+  <si>
+    <t>DATE</t>
+  </si>
+  <si>
+    <t>Fecha de la factura</t>
+  </si>
+  <si>
+    <t>BILL_DESC</t>
+  </si>
+  <si>
+    <t>VARCHAR(100)</t>
+  </si>
+  <si>
+    <t>Descripción o comentarios adicionales de la factura</t>
+  </si>
+  <si>
+    <r>
+      <t>DICCIO</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>NARIO DE LA BASE DE DATOS</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (BILL)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>DICCIO</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>NARIO DE LA BASE DE DATOS</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (ADMIN_PANEL)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>DICCIO</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>NARIO DE LA BASE DE DATOS</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (EMPLOYEE)</t>
+    </r>
+  </si>
+  <si>
+    <t>ADMIN_PANEL_ID</t>
+  </si>
+  <si>
+    <t>ID del panel de administración (clave primaria)</t>
+  </si>
+  <si>
+    <t>EMPLOYEE_ID</t>
+  </si>
+  <si>
+    <t>ID del empleado asociado al panel de administración</t>
+  </si>
+  <si>
+    <t>CREATE_PERMISSION</t>
+  </si>
+  <si>
+    <t>Permiso de creación en el panel de administración</t>
+  </si>
+  <si>
+    <t>READ_PERMISSION</t>
+  </si>
+  <si>
+    <t>Permiso de lectura en el panel de administración</t>
+  </si>
+  <si>
+    <t>DELETE_PERMISSION</t>
+  </si>
+  <si>
+    <t>Permiso de eliminación en el panel de administración</t>
+  </si>
+  <si>
+    <t>UPDATE_PERMISSION</t>
+  </si>
+  <si>
+    <t>Permiso de actualización en el panel de administración</t>
+  </si>
+  <si>
+    <t>ID del empleado (clave primaria)</t>
+  </si>
+  <si>
+    <t>NAME</t>
+  </si>
+  <si>
+    <t>Nombre del empleado</t>
+  </si>
+  <si>
+    <t>LAST_NAME</t>
+  </si>
+  <si>
+    <t>Apellido del empleado</t>
+  </si>
+  <si>
+    <t>ADDRESS</t>
+  </si>
+  <si>
+    <t>Dirección del empleado</t>
+  </si>
+  <si>
+    <t>EMPLOYEE_EMAIL</t>
+  </si>
+  <si>
+    <t>Correo electrónico del empleado</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="17" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -679,14 +815,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="Segoe UI"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <i/>
-      <sz val="14"/>
       <color theme="0"/>
       <name val="Segoe UI"/>
       <family val="2"/>
@@ -739,6 +867,41 @@
       <name val="Segoe UI"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="0"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="0"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color rgb="FFD1D5DB"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="7">
     <fill>
@@ -750,12 +913,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF0070C0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="1" tint="0.34998626667073579"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -774,6 +931,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF444654"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -944,81 +1107,106 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1334,126 +1522,6 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2264D336-21C3-4C28-9266-1D4A0E9622BF}">
-  <dimension ref="D3:G12"/>
-  <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="4" max="4" width="20.21875" customWidth="1"/>
-    <col min="5" max="5" width="19.33203125" customWidth="1"/>
-    <col min="6" max="6" width="44.88671875" customWidth="1"/>
-    <col min="7" max="7" width="2.88671875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="3" spans="4:7" x14ac:dyDescent="0.3">
-      <c r="D3" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="E3" s="16"/>
-      <c r="F3" s="16"/>
-      <c r="G3" s="16"/>
-    </row>
-    <row r="5" spans="4:7" ht="20.399999999999999" x14ac:dyDescent="0.45">
-      <c r="D5" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="4:7" ht="36.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D6" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="4:7" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D7" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="8" spans="4:7" ht="36.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D8" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="9" spans="4:7" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D9" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="10" spans="4:7" ht="31.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D10" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="11" spans="4:7" ht="39.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D11" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F11" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="12" spans="4:7" ht="49.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D12" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F12" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="D3:G3"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA0A5F7E-8B00-44A9-83F8-D599546B05EB}">
   <dimension ref="C1:I77"/>
   <sheetViews>
@@ -1472,868 +1540,868 @@
   </cols>
   <sheetData>
     <row r="1" spans="3:9" ht="21" x14ac:dyDescent="0.4">
-      <c r="C1" s="18" t="s">
-        <v>152</v>
-      </c>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
-      <c r="F1" s="18"/>
-      <c r="G1" s="18"/>
-      <c r="H1" s="18"/>
-      <c r="I1" s="18"/>
+      <c r="C1" s="23" t="s">
+        <v>139</v>
+      </c>
+      <c r="D1" s="23"/>
+      <c r="E1" s="23"/>
+      <c r="F1" s="23"/>
+      <c r="G1" s="23"/>
+      <c r="H1" s="23"/>
+      <c r="I1" s="23"/>
     </row>
     <row r="5" spans="3:9" ht="18" x14ac:dyDescent="0.35">
-      <c r="C5" s="17" t="s">
-        <v>59</v>
-      </c>
-      <c r="D5" s="17"/>
-      <c r="E5" s="17"/>
-      <c r="F5" s="17"/>
-      <c r="G5" s="17"/>
-      <c r="H5" s="17"/>
-      <c r="I5" s="17"/>
+      <c r="C5" s="22" t="s">
+        <v>46</v>
+      </c>
+      <c r="D5" s="22"/>
+      <c r="E5" s="22"/>
+      <c r="F5" s="22"/>
+      <c r="G5" s="22"/>
+      <c r="H5" s="22"/>
+      <c r="I5" s="22"/>
     </row>
     <row r="6" spans="3:9" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="7" spans="3:9" ht="19.8" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="C7" s="3" t="s">
+      <c r="C7" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D7" s="3" t="s">
+      <c r="D7" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F7" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E7" s="3" t="s">
+      <c r="G7" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I7" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="F7" s="3" t="s">
+    </row>
+    <row r="8" spans="3:9" ht="34.200000000000003" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C8" s="5">
+        <v>1</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E8" s="5">
+        <v>1</v>
+      </c>
+      <c r="F8" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="G7" s="3" t="s">
+      <c r="G8" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="H8" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="I8" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="H7" s="3" t="s">
+    </row>
+    <row r="9" spans="3:9" ht="34.200000000000003" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C9" s="5">
+        <v>2</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E9" s="5">
+        <v>1</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="G9" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="I7" s="4" t="s">
+      <c r="H9" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="I9" s="6" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="10" spans="3:9" ht="34.200000000000003" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C10" s="5">
+        <v>3</v>
+      </c>
+      <c r="D10" s="5" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="8" spans="3:9" ht="34.200000000000003" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C8" s="7">
+      <c r="E10" s="5">
         <v>1</v>
       </c>
-      <c r="D8" s="7" t="s">
+      <c r="F10" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="G10" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="H10" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="E8" s="7">
+      <c r="I10" s="6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="11" spans="3:9" ht="34.200000000000003" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C11" s="5">
+        <v>4</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="E11" s="5">
         <v>1</v>
       </c>
-      <c r="F8" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="H8" s="7" t="s">
+      <c r="F11" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="G11" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="I8" s="8" t="s">
+      <c r="H11" s="5" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="9" spans="3:9" ht="34.200000000000003" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C9" s="7">
-        <v>2</v>
-      </c>
-      <c r="D9" s="7" t="s">
+      <c r="I11" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="E9" s="7">
+    </row>
+    <row r="12" spans="3:9" ht="34.200000000000003" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C12" s="5">
+        <v>5</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="E12" s="5">
         <v>1</v>
       </c>
-      <c r="F9" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="G9" s="7" t="s">
+      <c r="F12" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="G12" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="H9" s="7" t="s">
+      <c r="H12" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="I9" s="8" t="s">
+      <c r="I12" s="6" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="10" spans="3:9" ht="34.200000000000003" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C10" s="7">
-        <v>3</v>
-      </c>
-      <c r="D10" s="7" t="s">
+    <row r="13" spans="3:9" ht="34.200000000000003" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C13" s="5">
+        <v>6</v>
+      </c>
+      <c r="D13" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="E10" s="7">
+      <c r="E13" s="5">
         <v>1</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="F13" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="G10" s="7" t="s">
+      <c r="G13" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="H10" s="7" t="s">
+      <c r="H13" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="I10" s="8" t="s">
+      <c r="I13" s="6" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="11" spans="3:9" ht="34.200000000000003" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C11" s="7">
-        <v>4</v>
-      </c>
-      <c r="D11" s="7" t="s">
+    <row r="14" spans="3:9" ht="34.200000000000003" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C14" s="5">
+        <v>7</v>
+      </c>
+      <c r="D14" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="E11" s="7">
+      <c r="E14" s="5">
         <v>1</v>
       </c>
-      <c r="F11" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="G11" s="7" t="s">
+      <c r="F14" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="G14" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="H11" s="7" t="s">
+      <c r="H14" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="I11" s="8" t="s">
+      <c r="I14" s="6" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="12" spans="3:9" ht="34.200000000000003" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C12" s="7">
-        <v>5</v>
-      </c>
-      <c r="D12" s="7" t="s">
+    <row r="15" spans="3:9" ht="34.200000000000003" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C15" s="5">
+        <v>8</v>
+      </c>
+      <c r="D15" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="E12" s="7">
+      <c r="E15" s="5">
         <v>1</v>
       </c>
-      <c r="F12" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="G12" s="7" t="s">
+      <c r="F15" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="G15" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="H12" s="7" t="s">
+      <c r="H15" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="I12" s="8" t="s">
+      <c r="I15" s="6" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="13" spans="3:9" ht="34.200000000000003" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C13" s="7">
-        <v>6</v>
-      </c>
-      <c r="D13" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="E13" s="7">
-        <v>1</v>
-      </c>
-      <c r="F13" s="7" t="s">
+    <row r="20" spans="3:9" ht="18" x14ac:dyDescent="0.35">
+      <c r="C20" s="22" t="s">
         <v>47</v>
       </c>
-      <c r="G13" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="H13" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="I13" s="8" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="14" spans="3:9" ht="34.200000000000003" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C14" s="7">
-        <v>7</v>
-      </c>
-      <c r="D14" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="E14" s="7">
-        <v>1</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="H14" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="I14" s="8" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="15" spans="3:9" ht="34.200000000000003" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C15" s="7">
-        <v>8</v>
-      </c>
-      <c r="D15" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="E15" s="7">
-        <v>1</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="H15" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="I15" s="8" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="20" spans="3:9" ht="18" x14ac:dyDescent="0.35">
-      <c r="C20" s="17" t="s">
-        <v>60</v>
-      </c>
-      <c r="D20" s="17"/>
-      <c r="E20" s="17"/>
-      <c r="F20" s="17"/>
-      <c r="G20" s="17"/>
-      <c r="H20" s="17"/>
-      <c r="I20" s="17"/>
+      <c r="D20" s="22"/>
+      <c r="E20" s="22"/>
+      <c r="F20" s="22"/>
+      <c r="G20" s="22"/>
+      <c r="H20" s="22"/>
+      <c r="I20" s="22"/>
     </row>
     <row r="22" spans="3:9" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="23" spans="3:9" ht="19.2" x14ac:dyDescent="0.45">
-      <c r="C23" s="9" t="s">
+      <c r="C23" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="D23" s="9" t="s">
+      <c r="D23" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="E23" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="F23" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="E23" s="15" t="s">
+      <c r="G23" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="H23" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="I23" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="F23" s="9" t="s">
+    </row>
+    <row r="24" spans="3:9" ht="49.2" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C24" s="11">
+        <v>9</v>
+      </c>
+      <c r="D24" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="E24" s="11">
+        <v>2</v>
+      </c>
+      <c r="F24" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="G24" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="H24" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="I24" s="9" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="25" spans="3:9" ht="75" x14ac:dyDescent="0.35">
+      <c r="C25" s="9">
+        <v>10</v>
+      </c>
+      <c r="D25" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="E25" s="9">
+        <v>2</v>
+      </c>
+      <c r="F25" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="G25" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="H25" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="I25" s="9" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="26" spans="3:9" ht="75" x14ac:dyDescent="0.35">
+      <c r="C26" s="9">
         <v>11</v>
       </c>
-      <c r="G23" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="H23" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="I23" s="10" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="24" spans="3:9" ht="49.2" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C24" s="13">
-        <v>9</v>
-      </c>
-      <c r="D24" s="11" t="s">
-        <v>61</v>
-      </c>
-      <c r="E24" s="13">
+      <c r="D26" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="E26" s="9">
         <v>2</v>
       </c>
-      <c r="F24" s="13" t="s">
-        <v>62</v>
-      </c>
-      <c r="G24" s="13" t="s">
+      <c r="F26" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="G26" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="H26" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="H24" s="14" t="s">
-        <v>74</v>
-      </c>
-      <c r="I24" s="11" t="s">
+      <c r="I26" s="9" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="27" spans="3:9" ht="46.2" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C27" s="9">
+        <v>12</v>
+      </c>
+      <c r="D27" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="E27" s="9">
+        <v>2</v>
+      </c>
+      <c r="F27" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="G27" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="H27" s="10" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="25" spans="3:9" ht="75" x14ac:dyDescent="0.35">
-      <c r="C25" s="11">
-        <v>10</v>
-      </c>
-      <c r="D25" s="11" t="s">
+      <c r="I27" s="9" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="33" spans="3:9" ht="18" x14ac:dyDescent="0.35">
+      <c r="C33" s="22" t="s">
         <v>65</v>
       </c>
-      <c r="E25" s="11">
-        <v>2</v>
-      </c>
-      <c r="F25" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="G25" s="11" t="s">
-        <v>66</v>
-      </c>
-      <c r="H25" s="12" t="s">
-        <v>75</v>
-      </c>
-      <c r="I25" s="11" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="26" spans="3:9" ht="75" x14ac:dyDescent="0.35">
-      <c r="C26" s="11">
-        <v>11</v>
-      </c>
-      <c r="D26" s="11" t="s">
-        <v>68</v>
-      </c>
-      <c r="E26" s="11">
-        <v>2</v>
-      </c>
-      <c r="F26" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="G26" s="11" t="s">
-        <v>69</v>
-      </c>
-      <c r="H26" s="12" t="s">
-        <v>76</v>
-      </c>
-      <c r="I26" s="11" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="27" spans="3:9" ht="46.2" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C27" s="11">
-        <v>12</v>
-      </c>
-      <c r="D27" s="11" t="s">
-        <v>71</v>
-      </c>
-      <c r="E27" s="11">
-        <v>2</v>
-      </c>
-      <c r="F27" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="G27" s="11" t="s">
-        <v>72</v>
-      </c>
-      <c r="H27" s="12" t="s">
-        <v>77</v>
-      </c>
-      <c r="I27" s="11" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="33" spans="3:9" ht="18" x14ac:dyDescent="0.35">
-      <c r="C33" s="17" t="s">
-        <v>78</v>
-      </c>
-      <c r="D33" s="17"/>
-      <c r="E33" s="17"/>
-      <c r="F33" s="17"/>
-      <c r="G33" s="17"/>
-      <c r="H33" s="17"/>
-      <c r="I33" s="17"/>
+      <c r="D33" s="22"/>
+      <c r="E33" s="22"/>
+      <c r="F33" s="22"/>
+      <c r="G33" s="22"/>
+      <c r="H33" s="22"/>
+      <c r="I33" s="22"/>
     </row>
     <row r="34" spans="3:9" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="35" spans="3:9" ht="19.2" x14ac:dyDescent="0.45">
-      <c r="C35" s="9" t="s">
+      <c r="C35" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="D35" s="9" t="s">
+      <c r="D35" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="E35" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="F35" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="E35" s="15" t="s">
+      <c r="G35" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="H35" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="I35" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="F35" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="G35" s="9" t="s">
+    </row>
+    <row r="36" spans="3:9" ht="75.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C36" s="3">
+        <v>13</v>
+      </c>
+      <c r="D36" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="E36" s="3">
+        <v>3</v>
+      </c>
+      <c r="F36" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="G36" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="H36" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="I36" s="4" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="37" spans="3:9" ht="90.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C37" s="3">
         <v>14</v>
       </c>
-      <c r="H35" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="I35" s="10" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="36" spans="3:9" ht="75.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C36" s="5">
-        <v>13</v>
-      </c>
-      <c r="D36" s="5" t="s">
+      <c r="D37" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="E37" s="3">
+        <v>3</v>
+      </c>
+      <c r="F37" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="G37" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="H37" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="I37" s="4" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="38" spans="3:9" ht="75.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C38" s="3">
+        <v>15</v>
+      </c>
+      <c r="D38" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="E38" s="3">
+        <v>3</v>
+      </c>
+      <c r="F38" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="G38" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="H38" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="I38" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="E36" s="5">
+    </row>
+    <row r="39" spans="3:9" ht="75.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C39" s="3">
+        <v>16</v>
+      </c>
+      <c r="D39" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="E39" s="3">
         <v>3</v>
       </c>
-      <c r="F36" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="G36" s="5" t="s">
+      <c r="F39" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="G39" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="H36" s="5" t="s">
+      <c r="H39" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="I36" s="6" t="s">
+      <c r="I39" s="4" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="37" spans="3:9" ht="90.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C37" s="5">
-        <v>14</v>
-      </c>
-      <c r="D37" s="5" t="s">
+    <row r="43" spans="3:9" ht="18" x14ac:dyDescent="0.35">
+      <c r="C43" s="22" t="s">
         <v>84</v>
       </c>
-      <c r="E37" s="5">
-        <v>3</v>
-      </c>
-      <c r="F37" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="G37" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="H37" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="I37" s="6" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="38" spans="3:9" ht="75.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C38" s="5">
-        <v>15</v>
-      </c>
-      <c r="D38" s="5" t="s">
-        <v>88</v>
-      </c>
-      <c r="E38" s="5">
-        <v>3</v>
-      </c>
-      <c r="F38" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="G38" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="H38" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="I38" s="6" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="39" spans="3:9" ht="75.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C39" s="5">
-        <v>16</v>
-      </c>
-      <c r="D39" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="E39" s="5">
-        <v>3</v>
-      </c>
-      <c r="F39" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="G39" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="H39" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="I39" s="6" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="43" spans="3:9" ht="18" x14ac:dyDescent="0.35">
-      <c r="C43" s="17" t="s">
-        <v>97</v>
-      </c>
-      <c r="D43" s="17"/>
-      <c r="E43" s="17"/>
-      <c r="F43" s="17"/>
-      <c r="G43" s="17"/>
-      <c r="H43" s="17"/>
-      <c r="I43" s="17"/>
+      <c r="D43" s="22"/>
+      <c r="E43" s="22"/>
+      <c r="F43" s="22"/>
+      <c r="G43" s="22"/>
+      <c r="H43" s="22"/>
+      <c r="I43" s="22"/>
     </row>
     <row r="45" spans="3:9" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="46" spans="3:9" ht="19.2" x14ac:dyDescent="0.45">
-      <c r="C46" s="9" t="s">
+      <c r="C46" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="D46" s="9" t="s">
+      <c r="D46" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="E46" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="F46" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="E46" s="15" t="s">
+      <c r="G46" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="H46" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="I46" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="F46" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="G46" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="H46" s="9" t="s">
+    </row>
+    <row r="47" spans="3:9" ht="75.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C47" s="3">
         <v>17</v>
       </c>
-      <c r="I46" s="10" t="s">
+      <c r="D47" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="E47" s="3">
+        <v>4</v>
+      </c>
+      <c r="F47" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="G47" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="H47" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="I47" s="4" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="48" spans="3:9" ht="60.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C48" s="3">
+        <v>18</v>
+      </c>
+      <c r="D48" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="E48" s="3">
+        <v>4</v>
+      </c>
+      <c r="F48" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="G48" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="H48" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="I48" s="4" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="49" spans="3:9" ht="60.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C49" s="3">
+        <v>19</v>
+      </c>
+      <c r="D49" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="E49" s="3">
+        <v>4</v>
+      </c>
+      <c r="F49" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="G49" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="H49" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="I49" s="4" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="50" spans="3:9" ht="75.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C50" s="3">
         <v>20</v>
       </c>
-    </row>
-    <row r="47" spans="3:9" ht="75.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C47" s="5">
-        <v>17</v>
-      </c>
-      <c r="D47" s="5" t="s">
+      <c r="D50" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="E47" s="5">
+      <c r="E50" s="3">
         <v>4</v>
       </c>
-      <c r="F47" s="5" t="s">
+      <c r="F50" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="G50" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="G47" s="5" t="s">
+      <c r="H50" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="H47" s="5" t="s">
+      <c r="I50" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="I47" s="6" t="s">
+    </row>
+    <row r="56" spans="3:9" ht="18" x14ac:dyDescent="0.35">
+      <c r="C56" s="22" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="48" spans="3:9" ht="60.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C48" s="5">
-        <v>18</v>
-      </c>
-      <c r="D48" s="5" t="s">
-        <v>103</v>
-      </c>
-      <c r="E48" s="5">
-        <v>4</v>
-      </c>
-      <c r="F48" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="G48" s="5" t="s">
-        <v>104</v>
-      </c>
-      <c r="H48" s="5" t="s">
-        <v>105</v>
-      </c>
-      <c r="I48" s="6" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="49" spans="3:9" ht="60.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C49" s="5">
-        <v>19</v>
-      </c>
-      <c r="D49" s="5" t="s">
-        <v>107</v>
-      </c>
-      <c r="E49" s="5">
-        <v>4</v>
-      </c>
-      <c r="F49" s="5" t="s">
-        <v>99</v>
-      </c>
-      <c r="G49" s="5" t="s">
-        <v>108</v>
-      </c>
-      <c r="H49" s="5" t="s">
-        <v>109</v>
-      </c>
-      <c r="I49" s="6" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="50" spans="3:9" ht="75.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C50" s="5">
-        <v>20</v>
-      </c>
-      <c r="D50" s="5" t="s">
-        <v>111</v>
-      </c>
-      <c r="E50" s="5">
-        <v>4</v>
-      </c>
-      <c r="F50" s="5" t="s">
-        <v>99</v>
-      </c>
-      <c r="G50" s="5" t="s">
-        <v>112</v>
-      </c>
-      <c r="H50" s="5" t="s">
-        <v>113</v>
-      </c>
-      <c r="I50" s="6" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="56" spans="3:9" ht="18" x14ac:dyDescent="0.35">
-      <c r="C56" s="17" t="s">
-        <v>115</v>
-      </c>
-      <c r="D56" s="17"/>
-      <c r="E56" s="17"/>
-      <c r="F56" s="17"/>
-      <c r="G56" s="17"/>
-      <c r="H56" s="17"/>
-      <c r="I56" s="17"/>
+      <c r="D56" s="22"/>
+      <c r="E56" s="22"/>
+      <c r="F56" s="22"/>
+      <c r="G56" s="22"/>
+      <c r="H56" s="22"/>
+      <c r="I56" s="22"/>
     </row>
     <row r="58" spans="3:9" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="59" spans="3:9" ht="19.2" x14ac:dyDescent="0.45">
-      <c r="C59" s="9" t="s">
+      <c r="C59" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="D59" s="9" t="s">
+      <c r="D59" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="E59" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="F59" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="E59" s="15" t="s">
+      <c r="G59" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="H59" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="I59" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="F59" s="9" t="s">
+    </row>
+    <row r="60" spans="3:9" ht="75.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C60" s="3">
+        <v>21</v>
+      </c>
+      <c r="D60" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="E60" s="3">
+        <v>5</v>
+      </c>
+      <c r="F60" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G60" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="H60" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="I60" s="4" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="61" spans="3:9" ht="60.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C61" s="3">
+        <v>22</v>
+      </c>
+      <c r="D61" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="E61" s="3">
+        <v>5</v>
+      </c>
+      <c r="F61" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="G59" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="H59" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="I59" s="10" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="60" spans="3:9" ht="75.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C60" s="5">
+      <c r="G61" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="H61" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="I61" s="4" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="62" spans="3:9" ht="75.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C62" s="3">
+        <v>23</v>
+      </c>
+      <c r="D62" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="E62" s="3">
+        <v>5</v>
+      </c>
+      <c r="F62" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="D60" s="5" t="s">
+      <c r="G62" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="H62" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="I62" s="4" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="63" spans="3:9" ht="45.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C63" s="3">
+        <v>24</v>
+      </c>
+      <c r="D63" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="E63" s="3">
+        <v>5</v>
+      </c>
+      <c r="F63" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G63" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="H63" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="E60" s="5">
-        <v>5</v>
-      </c>
-      <c r="F60" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="G60" s="5" t="s">
+      <c r="I63" s="4" t="s">
         <v>117</v>
       </c>
-      <c r="H60" s="5" t="s">
+    </row>
+    <row r="71" spans="3:9" ht="18" x14ac:dyDescent="0.35">
+      <c r="C71" s="22" t="s">
         <v>118</v>
       </c>
-      <c r="I60" s="6" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="61" spans="3:9" ht="60.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C61" s="5">
-        <v>22</v>
-      </c>
-      <c r="D61" s="5" t="s">
-        <v>120</v>
-      </c>
-      <c r="E61" s="5">
-        <v>5</v>
-      </c>
-      <c r="F61" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="G61" s="5" t="s">
-        <v>121</v>
-      </c>
-      <c r="H61" s="5" t="s">
-        <v>122</v>
-      </c>
-      <c r="I61" s="6" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="62" spans="3:9" ht="75.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C62" s="5">
-        <v>23</v>
-      </c>
-      <c r="D62" s="5" t="s">
-        <v>124</v>
-      </c>
-      <c r="E62" s="5">
-        <v>5</v>
-      </c>
-      <c r="F62" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="G62" s="5" t="s">
-        <v>125</v>
-      </c>
-      <c r="H62" s="5" t="s">
-        <v>126</v>
-      </c>
-      <c r="I62" s="6" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="63" spans="3:9" ht="45.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C63" s="5">
-        <v>24</v>
-      </c>
-      <c r="D63" s="5" t="s">
-        <v>128</v>
-      </c>
-      <c r="E63" s="5">
-        <v>5</v>
-      </c>
-      <c r="F63" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="G63" s="5" t="s">
-        <v>121</v>
-      </c>
-      <c r="H63" s="5" t="s">
-        <v>129</v>
-      </c>
-      <c r="I63" s="6" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="71" spans="3:9" ht="18" x14ac:dyDescent="0.35">
-      <c r="C71" s="17" t="s">
-        <v>131</v>
-      </c>
-      <c r="D71" s="17"/>
-      <c r="E71" s="17"/>
-      <c r="F71" s="17"/>
-      <c r="G71" s="17"/>
-      <c r="H71" s="17"/>
-      <c r="I71" s="17"/>
+      <c r="D71" s="22"/>
+      <c r="E71" s="22"/>
+      <c r="F71" s="22"/>
+      <c r="G71" s="22"/>
+      <c r="H71" s="22"/>
+      <c r="I71" s="22"/>
     </row>
     <row r="72" spans="3:9" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="73" spans="3:9" ht="19.2" x14ac:dyDescent="0.45">
-      <c r="C73" s="9" t="s">
+      <c r="C73" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="D73" s="9" t="s">
+      <c r="D73" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="E73" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="F73" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="E73" s="15" t="s">
+      <c r="G73" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="H73" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="I73" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="F73" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="G73" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="H73" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="I73" s="10" t="s">
-        <v>20</v>
-      </c>
     </row>
     <row r="74" spans="3:9" ht="75.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C74" s="5">
+      <c r="C74" s="3">
         <v>25</v>
       </c>
-      <c r="D74" s="5" t="s">
+      <c r="D74" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="E74" s="3">
+        <v>6</v>
+      </c>
+      <c r="F74" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="G74" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="H74" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="I74" s="4" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="75" spans="3:9" ht="90.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C75" s="3">
+        <v>26</v>
+      </c>
+      <c r="D75" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="E75" s="3">
+        <v>6</v>
+      </c>
+      <c r="F75" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="G75" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="H75" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="I75" s="4" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="76" spans="3:9" ht="90.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C76" s="3">
+        <v>27</v>
+      </c>
+      <c r="D76" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="E76" s="3">
+        <v>6</v>
+      </c>
+      <c r="F76" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="G76" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="H76" s="3" t="s">
         <v>132</v>
       </c>
-      <c r="E74" s="5">
+      <c r="I76" s="4" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="77" spans="3:9" ht="60.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C77" s="3">
+        <v>28</v>
+      </c>
+      <c r="D77" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="E77" s="3">
         <v>6</v>
       </c>
-      <c r="F74" s="5" t="s">
-        <v>133</v>
-      </c>
-      <c r="G74" s="5" t="s">
-        <v>134</v>
-      </c>
-      <c r="H74" s="5" t="s">
+      <c r="F77" s="3" t="s">
         <v>135</v>
       </c>
-      <c r="I74" s="6" t="s">
+      <c r="G77" s="3" t="s">
         <v>136</v>
       </c>
-    </row>
-    <row r="75" spans="3:9" ht="90.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C75" s="5">
-        <v>26</v>
-      </c>
-      <c r="D75" s="5" t="s">
+      <c r="H77" s="3" t="s">
         <v>137</v>
       </c>
-      <c r="E75" s="5">
-        <v>6</v>
-      </c>
-      <c r="F75" s="5" t="s">
+      <c r="I77" s="4" t="s">
         <v>138</v>
-      </c>
-      <c r="G75" s="5" t="s">
-        <v>139</v>
-      </c>
-      <c r="H75" s="5" t="s">
-        <v>140</v>
-      </c>
-      <c r="I75" s="6" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="76" spans="3:9" ht="90.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C76" s="5">
-        <v>27</v>
-      </c>
-      <c r="D76" s="5" t="s">
-        <v>142</v>
-      </c>
-      <c r="E76" s="5">
-        <v>6</v>
-      </c>
-      <c r="F76" s="5" t="s">
-        <v>143</v>
-      </c>
-      <c r="G76" s="5" t="s">
-        <v>144</v>
-      </c>
-      <c r="H76" s="5" t="s">
-        <v>145</v>
-      </c>
-      <c r="I76" s="6" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="77" spans="3:9" ht="60.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C77" s="5">
-        <v>28</v>
-      </c>
-      <c r="D77" s="5" t="s">
-        <v>147</v>
-      </c>
-      <c r="E77" s="5">
-        <v>6</v>
-      </c>
-      <c r="F77" s="5" t="s">
-        <v>148</v>
-      </c>
-      <c r="G77" s="5" t="s">
-        <v>149</v>
-      </c>
-      <c r="H77" s="5" t="s">
-        <v>150</v>
-      </c>
-      <c r="I77" s="6" t="s">
-        <v>151</v>
       </c>
     </row>
   </sheetData>
@@ -2350,7 +2418,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3710C08-859C-4FC5-BD67-661CE573CF25}">
   <dimension ref="E3:I9"/>
   <sheetViews>
@@ -2366,77 +2434,77 @@
   </cols>
   <sheetData>
     <row r="3" spans="5:9" x14ac:dyDescent="0.3">
-      <c r="E3" s="16" t="s">
-        <v>163</v>
-      </c>
-      <c r="F3" s="16"/>
-      <c r="G3" s="16"/>
-      <c r="H3" s="16"/>
+      <c r="E3" s="21" t="s">
+        <v>150</v>
+      </c>
+      <c r="F3" s="21"/>
+      <c r="G3" s="21"/>
+      <c r="H3" s="21"/>
     </row>
     <row r="5" spans="5:9" ht="19.2" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="E5" s="21" t="s">
+      <c r="E5" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="F5" s="21" t="s">
+      <c r="F5" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="G5" s="21" t="s">
+      <c r="G5" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="H5" s="19"/>
-      <c r="I5" s="19"/>
+      <c r="H5" s="14"/>
+      <c r="I5" s="14"/>
     </row>
     <row r="6" spans="5:9" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E6" s="20" t="s">
-        <v>153</v>
-      </c>
-      <c r="F6" s="20" t="s">
-        <v>154</v>
-      </c>
-      <c r="G6" s="20" t="s">
-        <v>155</v>
-      </c>
-      <c r="H6" s="19"/>
-      <c r="I6" s="19"/>
+      <c r="E6" s="15" t="s">
+        <v>140</v>
+      </c>
+      <c r="F6" s="15" t="s">
+        <v>141</v>
+      </c>
+      <c r="G6" s="15" t="s">
+        <v>142</v>
+      </c>
+      <c r="H6" s="14"/>
+      <c r="I6" s="14"/>
     </row>
     <row r="7" spans="5:9" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E7" s="20" t="s">
-        <v>156</v>
-      </c>
-      <c r="F7" s="20" t="s">
-        <v>157</v>
-      </c>
-      <c r="G7" s="20" t="s">
-        <v>158</v>
-      </c>
-      <c r="H7" s="19"/>
-      <c r="I7" s="19"/>
+      <c r="E7" s="15" t="s">
+        <v>143</v>
+      </c>
+      <c r="F7" s="15" t="s">
+        <v>144</v>
+      </c>
+      <c r="G7" s="15" t="s">
+        <v>145</v>
+      </c>
+      <c r="H7" s="14"/>
+      <c r="I7" s="14"/>
     </row>
     <row r="8" spans="5:9" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E8" s="20" t="s">
-        <v>159</v>
-      </c>
-      <c r="F8" s="20" t="s">
-        <v>157</v>
-      </c>
-      <c r="G8" s="20" t="s">
-        <v>160</v>
-      </c>
-      <c r="H8" s="19"/>
-      <c r="I8" s="19"/>
+      <c r="E8" s="15" t="s">
+        <v>146</v>
+      </c>
+      <c r="F8" s="15" t="s">
+        <v>144</v>
+      </c>
+      <c r="G8" s="15" t="s">
+        <v>147</v>
+      </c>
+      <c r="H8" s="14"/>
+      <c r="I8" s="14"/>
     </row>
     <row r="9" spans="5:9" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E9" s="20" t="s">
-        <v>161</v>
-      </c>
-      <c r="F9" s="20" t="s">
-        <v>157</v>
-      </c>
-      <c r="G9" s="20" t="s">
-        <v>162</v>
-      </c>
-      <c r="H9" s="19"/>
-      <c r="I9" s="19"/>
+      <c r="E9" s="15" t="s">
+        <v>148</v>
+      </c>
+      <c r="F9" s="15" t="s">
+        <v>144</v>
+      </c>
+      <c r="G9" s="15" t="s">
+        <v>149</v>
+      </c>
+      <c r="H9" s="14"/>
+      <c r="I9" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -2446,12 +2514,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B540C7E8-3890-46AB-B5BE-86DAFF576B5C}">
   <dimension ref="D3:G9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D3" sqref="D3:G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2462,67 +2530,67 @@
   </cols>
   <sheetData>
     <row r="3" spans="4:7" x14ac:dyDescent="0.3">
-      <c r="D3" s="16" t="s">
-        <v>172</v>
-      </c>
-      <c r="E3" s="16"/>
-      <c r="F3" s="16"/>
-      <c r="G3" s="16"/>
+      <c r="D3" s="21" t="s">
+        <v>159</v>
+      </c>
+      <c r="E3" s="21"/>
+      <c r="F3" s="21"/>
+      <c r="G3" s="21"/>
     </row>
     <row r="4" spans="4:7" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="5" spans="4:7" ht="24.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="D5" s="22" t="s">
+      <c r="D5" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="E5" s="22" t="s">
+      <c r="E5" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="F5" s="23" t="s">
+      <c r="F5" s="18" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="6" spans="4:7" ht="39.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D6" s="24" t="s">
-        <v>164</v>
-      </c>
-      <c r="E6" s="24" t="s">
+      <c r="D6" s="19" t="s">
+        <v>151</v>
+      </c>
+      <c r="E6" s="19" t="s">
+        <v>141</v>
+      </c>
+      <c r="F6" s="20" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="7" spans="4:7" ht="43.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D7" s="19" t="s">
+        <v>140</v>
+      </c>
+      <c r="E7" s="19" t="s">
+        <v>141</v>
+      </c>
+      <c r="F7" s="20" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="8" spans="4:7" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D8" s="19" t="s">
         <v>154</v>
       </c>
-      <c r="F6" s="25" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="7" spans="4:7" ht="43.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D7" s="24" t="s">
-        <v>153</v>
-      </c>
-      <c r="E7" s="24" t="s">
-        <v>154</v>
-      </c>
-      <c r="F7" s="25" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="8" spans="4:7" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D8" s="24" t="s">
-        <v>167</v>
-      </c>
-      <c r="E8" s="24" t="s">
-        <v>154</v>
-      </c>
-      <c r="F8" s="25" t="s">
-        <v>168</v>
+      <c r="E8" s="19" t="s">
+        <v>141</v>
+      </c>
+      <c r="F8" s="20" t="s">
+        <v>155</v>
       </c>
     </row>
     <row r="9" spans="4:7" ht="40.200000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D9" s="24" t="s">
-        <v>169</v>
-      </c>
-      <c r="E9" s="24" t="s">
-        <v>170</v>
-      </c>
-      <c r="F9" s="25" t="s">
-        <v>171</v>
+      <c r="D9" s="19" t="s">
+        <v>156</v>
+      </c>
+      <c r="E9" s="19" t="s">
+        <v>157</v>
+      </c>
+      <c r="F9" s="20" t="s">
+        <v>158</v>
       </c>
     </row>
   </sheetData>
@@ -2531,4 +2599,321 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64EF340E-502E-44A1-B634-E24AA20C71FE}">
+  <dimension ref="C3:G11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C3" sqref="C3:F3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="3" max="3" width="25.33203125" customWidth="1"/>
+    <col min="4" max="4" width="20.5546875" customWidth="1"/>
+    <col min="5" max="5" width="35.88671875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C3" s="21" t="s">
+        <v>177</v>
+      </c>
+      <c r="D3" s="21"/>
+      <c r="E3" s="21"/>
+      <c r="F3" s="21"/>
+    </row>
+    <row r="4" spans="3:7" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="5" spans="3:7" ht="28.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="C5" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="D5" s="24" t="s">
+        <v>1</v>
+      </c>
+      <c r="E5" s="25" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="3:7" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C6" s="19" t="s">
+        <v>160</v>
+      </c>
+      <c r="D6" s="19" t="s">
+        <v>161</v>
+      </c>
+      <c r="E6" s="20" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="7" spans="3:7" ht="49.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C7" s="19" t="s">
+        <v>163</v>
+      </c>
+      <c r="D7" s="19" t="s">
+        <v>164</v>
+      </c>
+      <c r="E7" s="20" t="s">
+        <v>165</v>
+      </c>
+      <c r="G7" s="26"/>
+    </row>
+    <row r="8" spans="3:7" ht="46.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C8" s="19" t="s">
+        <v>166</v>
+      </c>
+      <c r="D8" s="19" t="s">
+        <v>167</v>
+      </c>
+      <c r="E8" s="20" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="9" spans="3:7" ht="37.799999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C9" s="19" t="s">
+        <v>169</v>
+      </c>
+      <c r="D9" s="19" t="s">
+        <v>167</v>
+      </c>
+      <c r="E9" s="20" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="10" spans="3:7" ht="46.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C10" s="19" t="s">
+        <v>171</v>
+      </c>
+      <c r="D10" s="19" t="s">
+        <v>172</v>
+      </c>
+      <c r="E10" s="20" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="11" spans="3:7" ht="30.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C11" s="19" t="s">
+        <v>174</v>
+      </c>
+      <c r="D11" s="19" t="s">
+        <v>175</v>
+      </c>
+      <c r="E11" s="20" t="s">
+        <v>176</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="C3:F3"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1DFDC664-48A0-47A1-A9C0-D10CAEC3C407}">
+  <dimension ref="D4:G12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H8" sqref="H8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="4" max="4" width="22.109375" customWidth="1"/>
+    <col min="5" max="5" width="20.77734375" customWidth="1"/>
+    <col min="6" max="6" width="34.77734375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="4" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="D4" s="21" t="s">
+        <v>178</v>
+      </c>
+      <c r="E4" s="21"/>
+      <c r="F4" s="21"/>
+      <c r="G4" s="21"/>
+    </row>
+    <row r="5" spans="4:7" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="6" spans="4:7" ht="41.4" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="D6" s="27" t="s">
+        <v>0</v>
+      </c>
+      <c r="E6" s="27" t="s">
+        <v>1</v>
+      </c>
+      <c r="F6" s="28" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="4:7" ht="34.200000000000003" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D7" s="29" t="s">
+        <v>180</v>
+      </c>
+      <c r="E7" s="29" t="s">
+        <v>161</v>
+      </c>
+      <c r="F7" s="30" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="8" spans="4:7" ht="34.200000000000003" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D8" s="29" t="s">
+        <v>182</v>
+      </c>
+      <c r="E8" s="29" t="s">
+        <v>161</v>
+      </c>
+      <c r="F8" s="30" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="9" spans="4:7" ht="34.200000000000003" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D9" s="29" t="s">
+        <v>184</v>
+      </c>
+      <c r="E9" s="29" t="s">
+        <v>161</v>
+      </c>
+      <c r="F9" s="30" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="10" spans="4:7" ht="34.200000000000003" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D10" s="29" t="s">
+        <v>186</v>
+      </c>
+      <c r="E10" s="29" t="s">
+        <v>161</v>
+      </c>
+      <c r="F10" s="30" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="11" spans="4:7" ht="34.200000000000003" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D11" s="29" t="s">
+        <v>188</v>
+      </c>
+      <c r="E11" s="29" t="s">
+        <v>161</v>
+      </c>
+      <c r="F11" s="30" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="12" spans="4:7" ht="34.200000000000003" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D12" s="29" t="s">
+        <v>190</v>
+      </c>
+      <c r="E12" s="29" t="s">
+        <v>161</v>
+      </c>
+      <c r="F12" s="30" t="s">
+        <v>191</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="D4:G4"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F6362D8-7A67-461A-935F-C9A41DCACE6D}">
+  <dimension ref="D4:G11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="4" max="4" width="19.6640625" customWidth="1"/>
+    <col min="5" max="5" width="24.109375" customWidth="1"/>
+    <col min="6" max="6" width="28.5546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="4" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="D4" s="21" t="s">
+        <v>179</v>
+      </c>
+      <c r="E4" s="21"/>
+      <c r="F4" s="21"/>
+      <c r="G4" s="21"/>
+    </row>
+    <row r="5" spans="4:7" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="6" spans="4:7" ht="32.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="D6" s="31" t="s">
+        <v>0</v>
+      </c>
+      <c r="E6" s="31" t="s">
+        <v>1</v>
+      </c>
+      <c r="F6" s="32" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="4:7" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D7" s="33" t="s">
+        <v>182</v>
+      </c>
+      <c r="E7" s="33" t="s">
+        <v>161</v>
+      </c>
+      <c r="F7" s="34" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="8" spans="4:7" ht="36.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D8" s="33" t="s">
+        <v>193</v>
+      </c>
+      <c r="E8" s="33" t="s">
+        <v>167</v>
+      </c>
+      <c r="F8" s="34" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="9" spans="4:7" ht="35.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D9" s="33" t="s">
+        <v>195</v>
+      </c>
+      <c r="E9" s="33" t="s">
+        <v>167</v>
+      </c>
+      <c r="F9" s="34" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="10" spans="4:7" ht="28.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D10" s="33" t="s">
+        <v>197</v>
+      </c>
+      <c r="E10" s="33" t="s">
+        <v>175</v>
+      </c>
+      <c r="F10" s="34" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="11" spans="4:7" ht="30.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D11" s="33" t="s">
+        <v>199</v>
+      </c>
+      <c r="E11" s="33" t="s">
+        <v>175</v>
+      </c>
+      <c r="F11" s="34" t="s">
+        <v>200</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="D4:G4"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>